--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,10 +2189,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798757</v>
+        <v>111798760</v>
       </c>
       <c r="B14" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2201,25 +2201,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2283,20 +2283,9 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2433,10 +2422,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798760</v>
+        <v>111798795</v>
       </c>
       <c r="B16" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2445,25 +2434,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2527,6 +2516,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,7 +2189,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798760</v>
+        <v>111798755</v>
       </c>
       <c r="B14" t="n">
         <v>90709</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R14" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2286,6 +2286,7 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798755</v>
+        <v>111798760</v>
       </c>
       <c r="B15" t="n">
         <v>90709</v>
@@ -2345,13 +2346,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R15" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2402,7 +2403,6 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AR15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,7 +2189,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798755</v>
+        <v>111798760</v>
       </c>
       <c r="B14" t="n">
         <v>90709</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R14" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2286,7 +2286,6 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2306,10 +2305,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798760</v>
+        <v>111798757</v>
       </c>
       <c r="B15" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2318,25 +2317,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2400,9 +2399,20 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
@@ -2422,10 +2432,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798795</v>
+        <v>111798755</v>
       </c>
       <c r="B16" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2434,25 +2444,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2462,13 +2472,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R16" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2516,10 +2526,10 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
+      <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,7 +2189,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798760</v>
+        <v>111798755</v>
       </c>
       <c r="B14" t="n">
         <v>90709</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R14" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2286,6 +2286,7 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798757</v>
+        <v>111798795</v>
       </c>
       <c r="B15" t="n">
         <v>81076</v>
@@ -2399,20 +2400,10 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
@@ -2432,7 +2423,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798755</v>
+        <v>111798760</v>
       </c>
       <c r="B16" t="n">
         <v>90709</v>
@@ -2472,13 +2463,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R16" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2529,7 +2520,6 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,6 +2537,134 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111961716</v>
+      </c>
+      <c r="B17" t="n">
+        <v>81076</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5046</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Grön jordtunga</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Microglossum viride</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Klockarbäcken, Vb</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>753078.7913326195</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7090973.389402887</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Stefan Phalagorn Bergström</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798755</v>
+        <v>111798795</v>
       </c>
       <c r="B14" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2201,25 +2201,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R14" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798795</v>
+        <v>111798760</v>
       </c>
       <c r="B15" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2318,25 +2318,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2400,7 +2400,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2423,7 +2422,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798760</v>
+        <v>111798755</v>
       </c>
       <c r="B16" t="n">
         <v>90709</v>
@@ -2463,13 +2462,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R16" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2520,6 +2519,7 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
+      <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B17" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2551,37 +2551,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2644,11 +2636,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2660,10 +2648,138 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111961716</v>
+      </c>
+      <c r="B18" t="n">
+        <v>81076</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5046</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Grön jordtunga</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Microglossum viride</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Klockarbäcken, Vb</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>753078.7913326195</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7090973.389402887</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Stefan Phalagorn Bergström</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
           <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,7 +2189,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798795</v>
+        <v>111798757</v>
       </c>
       <c r="B14" t="n">
         <v>81076</v>
@@ -2283,10 +2283,20 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2306,7 +2316,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798760</v>
+        <v>111798755</v>
       </c>
       <c r="B15" t="n">
         <v>90709</v>
@@ -2346,13 +2356,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R15" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2403,6 +2413,7 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
+      <c r="AR15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
@@ -2422,7 +2433,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798755</v>
+        <v>111798760</v>
       </c>
       <c r="B16" t="n">
         <v>90709</v>
@@ -2462,13 +2473,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R16" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2519,7 +2530,6 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2316,7 +2316,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798755</v>
+        <v>111798760</v>
       </c>
       <c r="B15" t="n">
         <v>90709</v>
@@ -2356,13 +2356,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R15" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2413,7 +2413,6 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AR15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
@@ -2433,7 +2432,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798760</v>
+        <v>111798755</v>
       </c>
       <c r="B16" t="n">
         <v>90709</v>
@@ -2473,13 +2472,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R16" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2530,6 +2529,7 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
+      <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,10 +2189,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798757</v>
+        <v>111798755</v>
       </c>
       <c r="B14" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2201,25 +2201,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R14" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2283,18 +2283,8 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
@@ -2432,10 +2422,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798755</v>
+        <v>111798757</v>
       </c>
       <c r="B16" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2444,25 +2434,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2472,13 +2462,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R16" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2526,8 +2516,18 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961472</v>
+        <v>111961716</v>
       </c>
       <c r="B17" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2561,29 +2561,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2646,7 +2654,11 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2658,17 +2670,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B18" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2677,37 +2689,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2770,11 +2774,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,7 +2189,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798755</v>
+        <v>111798760</v>
       </c>
       <c r="B14" t="n">
         <v>90709</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753030.7189070459</v>
+        <v>753108.8301749222</v>
       </c>
       <c r="R14" t="n">
-        <v>7090920.781295684</v>
+        <v>7091007.708399305</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2286,7 +2286,6 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2306,10 +2305,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798760</v>
+        <v>111798795</v>
       </c>
       <c r="B15" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2318,25 +2317,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2400,6 +2399,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798757</v>
+        <v>111798755</v>
       </c>
       <c r="B16" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2434,25 +2434,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753108.8301749222</v>
+        <v>753030.7189070459</v>
       </c>
       <c r="R16" t="n">
-        <v>7091007.708399305</v>
+        <v>7090920.781295684</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2516,18 +2516,8 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
@@ -2549,10 +2539,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B17" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2561,37 +2551,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2654,11 +2636,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2670,17 +2648,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111961472</v>
+        <v>111961716</v>
       </c>
       <c r="B18" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2689,29 +2667,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2774,7 +2760,11 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2786,7 +2776,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,6 +2781,126 @@
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112209223</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89802</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Umedalen, Umeå, Vb</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>753585.5470142091</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7090378.824306269</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>anitha lundberg</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>anitha lundberg</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,10 +2189,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798760</v>
+        <v>111798757</v>
       </c>
       <c r="B14" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2201,25 +2201,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753108.8301749222</v>
+        <v>753109</v>
       </c>
       <c r="R14" t="n">
-        <v>7091007.708399305</v>
+        <v>7091008</v>
       </c>
       <c r="S14" t="n">
         <v>100</v>
@@ -2262,30 +2262,31 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
@@ -2305,10 +2306,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111798795</v>
+        <v>111798760</v>
       </c>
       <c r="B15" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2317,25 +2318,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2345,10 +2346,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>753108.8301749222</v>
+        <v>753109</v>
       </c>
       <c r="R15" t="n">
-        <v>7091007.708399305</v>
+        <v>7091008</v>
       </c>
       <c r="S15" t="n">
         <v>100</v>
@@ -2378,28 +2379,17 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2462,10 +2452,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753030.7189070459</v>
+        <v>753031</v>
       </c>
       <c r="R16" t="n">
-        <v>7090920.781295684</v>
+        <v>7090921</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2495,19 +2485,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2539,10 +2519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961472</v>
+        <v>111961716</v>
       </c>
       <c r="B17" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2551,29 +2531,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2582,10 +2570,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>753078.7913326195</v>
+        <v>753079</v>
       </c>
       <c r="R17" t="n">
-        <v>7090973.389402887</v>
+        <v>7090973</v>
       </c>
       <c r="S17" t="n">
         <v>100</v>
@@ -2615,28 +2603,22 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2648,17 +2630,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B18" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2667,37 +2649,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2706,10 +2680,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>753078.7913326195</v>
+        <v>753079</v>
       </c>
       <c r="R18" t="n">
-        <v>7090973.389402887</v>
+        <v>7090973</v>
       </c>
       <c r="S18" t="n">
         <v>100</v>
@@ -2739,32 +2713,18 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2776,7 +2736,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2830,10 +2790,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>753585.5470142091</v>
+        <v>753586</v>
       </c>
       <c r="R19" t="n">
-        <v>7090378.824306269</v>
+        <v>7090379</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2863,19 +2823,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2189,10 +2189,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111798757</v>
+        <v>111798755</v>
       </c>
       <c r="B14" t="n">
-        <v>81076</v>
+        <v>90709</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2201,25 +2201,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>753109</v>
+        <v>753031</v>
       </c>
       <c r="R14" t="n">
-        <v>7091008</v>
+        <v>7090921</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2273,18 +2273,8 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
@@ -2412,10 +2402,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111798755</v>
+        <v>111798757</v>
       </c>
       <c r="B16" t="n">
-        <v>90709</v>
+        <v>81076</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2424,25 +2414,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2452,13 +2442,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>753031</v>
+        <v>753109</v>
       </c>
       <c r="R16" t="n">
-        <v>7090921</v>
+        <v>7091008</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2496,8 +2486,18 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B17" t="n">
-        <v>81076</v>
+        <v>90843</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2531,37 +2531,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2614,11 +2606,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2630,17 +2618,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111961472</v>
+        <v>111961716</v>
       </c>
       <c r="B18" t="n">
-        <v>90709</v>
+        <v>81193</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2649,29 +2637,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2724,7 +2720,11 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
         <v>112209223</v>
       </c>
       <c r="B19" t="n">
-        <v>89802</v>
+        <v>89936</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2519,10 +2519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961472</v>
+        <v>111961716</v>
       </c>
       <c r="B17" t="n">
-        <v>90843</v>
+        <v>81207</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2531,29 +2531,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2606,7 +2614,11 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2618,17 +2630,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B18" t="n">
-        <v>81193</v>
+        <v>90857</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2637,37 +2649,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2720,11 +2724,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
         <v>112209223</v>
       </c>
       <c r="B19" t="n">
-        <v>89936</v>
+        <v>89950</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>

--- a/artfynd/A 3019-2020.xlsx
+++ b/artfynd/A 3019-2020.xlsx
@@ -2519,10 +2519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111961716</v>
+        <v>111961472</v>
       </c>
       <c r="B17" t="n">
-        <v>81207</v>
+        <v>90857</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2531,37 +2531,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2614,11 +2606,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2630,17 +2618,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
+          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111961472</v>
+        <v>111961716</v>
       </c>
       <c r="B18" t="n">
-        <v>90857</v>
+        <v>81207</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2649,29 +2637,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5448</v>
+        <v>5046</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Pers.:Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2724,7 +2720,11 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Annika  Carlberg , Andreas Estensen, Ola Elleström, Anne Järvinen, Emma Sewell, Thomas Strid</t>
+          <t>Stefan Phalagorn Bergström, Andreas Estensen, Annika  Carlberg , Ola Elleström, Thomas Strid, Anne Järvinen, Emma Sewell</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
